--- a/data/sample01.xlsx
+++ b/data/sample01.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>img/original/sample01/S2-G5-20.png</t>
+    <t>img/original/sample01/04.png</t>
+  </si>
+  <si>
+    <t>img/original/sample01/10.png</t>
   </si>
 </sst>
 </file>
@@ -374,13 +377,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:14">
       <c r="B1" s="1">
         <v>1</v>
       </c>
@@ -390,19 +393,90 @@
       <c r="D1" s="1">
         <v>3</v>
       </c>
+      <c r="E1" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>533.8805615261625</v>
+        <v>569.5878735780716</v>
       </c>
       <c r="C2">
-        <v>670.8316826562384</v>
-      </c>
-      <c r="D2">
-        <v>642.656036269824</v>
+        <v>420.8183220624924</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>232.894441485405</v>
+      </c>
+      <c r="C3">
+        <v>169.4385982751846</v>
+      </c>
+      <c r="D3">
+        <v>343.1198371648788</v>
+      </c>
+      <c r="E3">
+        <v>204.0660150051117</v>
+      </c>
+      <c r="F3">
+        <v>255.1787142753601</v>
+      </c>
+      <c r="G3">
+        <v>218.3086549043655</v>
+      </c>
+      <c r="H3">
+        <v>204.8944418430328</v>
+      </c>
+      <c r="I3">
+        <v>206.994947552681</v>
+      </c>
+      <c r="J3">
+        <v>254.6934314966202</v>
+      </c>
+      <c r="K3">
+        <v>161.1959577798843</v>
+      </c>
+      <c r="L3">
+        <v>189.3380936384201</v>
+      </c>
+      <c r="M3">
+        <v>215.4802284240723</v>
+      </c>
+      <c r="N3">
+        <v>332.2914109230042</v>
       </c>
     </row>
   </sheetData>
